--- a/proj_bigdata/data/Raw_Data Dictionary.xlsx
+++ b/proj_bigdata/data/Raw_Data Dictionary.xlsx
@@ -1608,7 +1608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1714,6 +1714,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0] 2" xfId="1"/>
@@ -1744,7 +1753,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2222,9 +2231,9 @@
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4640,7 +4649,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B72" sqref="B71:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5020,58 +5029,62 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1">
       <c r="A28" s="27" t="s">
         <v>412</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="18"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:7" s="39" customFormat="1">
+      <c r="A29" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="37" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="18" t="s">
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30" spans="1:7" s="39" customFormat="1">
+      <c r="A30" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="37" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="18" t="s">
+      <c r="D30" s="38"/>
+    </row>
+    <row r="31" spans="1:7" s="39" customFormat="1">
+      <c r="A31" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="37" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="18" t="s">
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32" spans="1:7" s="39" customFormat="1">
+      <c r="A32" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="37" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="19" t="s">
         <v>93</v>
       </c>
@@ -5080,7 +5093,7 @@
       </c>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="19" t="s">
         <v>95</v>
       </c>
@@ -5089,7 +5102,7 @@
       </c>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" s="19" t="s">
         <v>97</v>
       </c>
@@ -5098,563 +5111,610 @@
       </c>
       <c r="C35" s="18"/>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:4" s="39" customFormat="1">
+      <c r="A36" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="37" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="18" t="s">
+      <c r="D36" s="38"/>
+    </row>
+    <row r="37" spans="1:4" s="39" customFormat="1">
+      <c r="A37" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="37" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="18" t="s">
+      <c r="D37" s="38"/>
+    </row>
+    <row r="38" spans="1:4" s="39" customFormat="1">
+      <c r="A38" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="37" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="18" t="s">
+      <c r="D38" s="38"/>
+    </row>
+    <row r="39" spans="1:4" s="39" customFormat="1">
+      <c r="A39" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="37" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="18" t="s">
+      <c r="D39" s="38"/>
+    </row>
+    <row r="40" spans="1:4" s="39" customFormat="1">
+      <c r="A40" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="37" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="18" t="s">
+      <c r="D40" s="38"/>
+    </row>
+    <row r="41" spans="1:4" s="39" customFormat="1">
+      <c r="A41" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="37" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="18" t="s">
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:4" s="39" customFormat="1">
+      <c r="A42" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="37" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="18" t="s">
+      <c r="D42" s="38"/>
+    </row>
+    <row r="43" spans="1:4" s="39" customFormat="1">
+      <c r="A43" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="37" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="18" t="s">
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="1:4" s="39" customFormat="1">
+      <c r="A44" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="37" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="18" t="s">
+      <c r="D44" s="38"/>
+    </row>
+    <row r="45" spans="1:4" s="39" customFormat="1">
+      <c r="A45" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="37" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="18" t="s">
+      <c r="D45" s="38"/>
+    </row>
+    <row r="46" spans="1:4" s="39" customFormat="1">
+      <c r="A46" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="37" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="18" t="s">
+      <c r="D46" s="38"/>
+    </row>
+    <row r="47" spans="1:4" s="39" customFormat="1">
+      <c r="A47" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="18" t="s">
+      <c r="D47" s="38"/>
+    </row>
+    <row r="48" spans="1:4" s="39" customFormat="1">
+      <c r="A48" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="37" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="18" t="s">
+      <c r="D48" s="38"/>
+    </row>
+    <row r="49" spans="1:4" s="39" customFormat="1">
+      <c r="A49" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="37" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="18" t="s">
+      <c r="D49" s="38"/>
+    </row>
+    <row r="50" spans="1:4" s="39" customFormat="1">
+      <c r="A50" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="37" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="18" t="s">
+      <c r="D50" s="38"/>
+    </row>
+    <row r="51" spans="1:4" s="39" customFormat="1">
+      <c r="A51" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="18" t="s">
+      <c r="D51" s="38"/>
+    </row>
+    <row r="52" spans="1:4" s="39" customFormat="1">
+      <c r="A52" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="37" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="18" t="s">
+      <c r="D52" s="38"/>
+    </row>
+    <row r="53" spans="1:4" s="39" customFormat="1">
+      <c r="A53" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="37" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="18" t="s">
+      <c r="D53" s="38"/>
+    </row>
+    <row r="54" spans="1:4" s="39" customFormat="1">
+      <c r="A54" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="37" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="18" t="s">
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="1:4" s="39" customFormat="1">
+      <c r="A55" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="37" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="18" t="s">
+      <c r="D55" s="38"/>
+    </row>
+    <row r="56" spans="1:4" s="39" customFormat="1">
+      <c r="A56" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="37" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="18" t="s">
+      <c r="D56" s="38"/>
+    </row>
+    <row r="57" spans="1:4" s="39" customFormat="1">
+      <c r="A57" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="37" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="18" t="s">
+      <c r="D57" s="38"/>
+    </row>
+    <row r="58" spans="1:4" s="39" customFormat="1">
+      <c r="A58" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="37" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="18" t="s">
+      <c r="D58" s="38"/>
+    </row>
+    <row r="59" spans="1:4" s="39" customFormat="1">
+      <c r="A59" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="37" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="18" t="s">
+      <c r="D59" s="38"/>
+    </row>
+    <row r="60" spans="1:4" s="39" customFormat="1">
+      <c r="A60" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="18" t="s">
+      <c r="D60" s="38"/>
+    </row>
+    <row r="61" spans="1:4" s="39" customFormat="1">
+      <c r="A61" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="37" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="18" t="s">
+      <c r="D61" s="38"/>
+    </row>
+    <row r="62" spans="1:4" s="39" customFormat="1">
+      <c r="A62" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="37" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="18" t="s">
+      <c r="D62" s="38"/>
+    </row>
+    <row r="63" spans="1:4" s="39" customFormat="1">
+      <c r="A63" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="37" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="18" t="s">
+      <c r="D63" s="38"/>
+    </row>
+    <row r="64" spans="1:4" s="39" customFormat="1">
+      <c r="A64" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="37" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="18" t="s">
+      <c r="D64" s="38"/>
+    </row>
+    <row r="65" spans="1:4" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A65" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="37" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="18" t="s">
+      <c r="D65" s="38"/>
+    </row>
+    <row r="66" spans="1:4" s="39" customFormat="1">
+      <c r="A66" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="37" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="18" t="s">
+      <c r="D66" s="38"/>
+    </row>
+    <row r="67" spans="1:4" s="39" customFormat="1">
+      <c r="A67" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="37" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="18" t="s">
+      <c r="D67" s="38"/>
+    </row>
+    <row r="68" spans="1:4" s="39" customFormat="1">
+      <c r="A68" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="37" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="18" t="s">
+      <c r="D68" s="38"/>
+    </row>
+    <row r="69" spans="1:4" s="39" customFormat="1">
+      <c r="A69" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="37" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="18" t="s">
+      <c r="D69" s="38"/>
+    </row>
+    <row r="70" spans="1:4" s="39" customFormat="1">
+      <c r="A70" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="37" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="18" t="s">
+      <c r="D70" s="38"/>
+    </row>
+    <row r="71" spans="1:4" s="39" customFormat="1">
+      <c r="A71" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="37" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="18" t="s">
+      <c r="D71" s="38"/>
+    </row>
+    <row r="72" spans="1:4" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="37" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="18" t="s">
+      <c r="D72" s="38"/>
+    </row>
+    <row r="73" spans="1:4" s="39" customFormat="1">
+      <c r="A73" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="18" t="s">
+      <c r="D73" s="38"/>
+    </row>
+    <row r="74" spans="1:4" s="39" customFormat="1">
+      <c r="A74" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="37" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="18" t="s">
+      <c r="D74" s="38"/>
+    </row>
+    <row r="75" spans="1:4" s="39" customFormat="1">
+      <c r="A75" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="37" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="18" t="s">
+      <c r="D75" s="38"/>
+    </row>
+    <row r="76" spans="1:4" s="39" customFormat="1">
+      <c r="A76" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="37" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="18" t="s">
+      <c r="D76" s="38"/>
+    </row>
+    <row r="77" spans="1:4" s="39" customFormat="1">
+      <c r="A77" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="37" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="18" t="s">
+      <c r="D77" s="38"/>
+    </row>
+    <row r="78" spans="1:4" s="39" customFormat="1">
+      <c r="A78" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="37" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="18" t="s">
+      <c r="D78" s="38"/>
+    </row>
+    <row r="79" spans="1:4" s="39" customFormat="1">
+      <c r="A79" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="37" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="18" t="s">
+      <c r="D79" s="38"/>
+    </row>
+    <row r="80" spans="1:4" s="39" customFormat="1">
+      <c r="A80" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="37" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="18" t="s">
+      <c r="D80" s="38"/>
+    </row>
+    <row r="81" spans="1:4" s="39" customFormat="1">
+      <c r="A81" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="37" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="18" t="s">
+      <c r="D81" s="38"/>
+    </row>
+    <row r="82" spans="1:4" s="39" customFormat="1">
+      <c r="A82" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="37" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="38"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="C83" s="18"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="C84" s="18"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="C85" s="18"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="C86" s="18"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="C87" s="18"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="C88" s="18"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="C89" s="18"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="C90" s="18"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="C91" s="18"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="C92" s="18"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="C93" s="18"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="C94" s="18"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="C95" s="18"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="C96" s="18"/>
     </row>
     <row r="97" spans="3:3">
